--- a/src/main/java/resources/Footer.xlsx
+++ b/src/main/java/resources/Footer.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\REZA\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\REZA\Desktop\Automation\eclipse-workspace\Automation_Project-01-Netrogena\src\main\java\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3AF329BC-E966-4898-85B7-81CB31F2D335}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FAC00AD-6EBB-4533-AC63-9AE6E04A0F0A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1635" yWindow="555" windowWidth="15375" windowHeight="7875" xr2:uid="{504F117B-5436-459F-B3BF-423EFDFD40F8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{504F117B-5436-459F-B3BF-423EFDFD40F8}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -74,9 +74,6 @@
     <t>https://www.neutrogena.com/producttesting.html</t>
   </si>
   <si>
-    <t>https://www.neutrogenamd.com/?utm_source=neutrogena.com&amp;utm_medium=partner&amp;utm_campaign=jnj-brand-sites&amp;_gl=1*1pezwof*_ga*MTg0MDI3ODY5OS4xNjY1MTA2MjYy*_ga_13VEM6N66E*MTY2NTkxMDkzNS4yNC4wLjE2NjU5MTA5OTMuMi4wLjA.*_fplc*ZFBjM1JWRngxQWdGN25PRVI5Q1UwRE01UiUyRlV2TWVLd29WM3cxT2N0QURTd3E1VzJiNllFbUFWQVMlMkZhU0hhQ3djSlpoQnpyeUNndlNJWSUyRndKcEtkOWhTeDdGNUI1aDlzRGF0Z3U0Sm1idGQyUUVGd3U2MTZKaTJUR1NVYVJBJTNEJTNE</t>
-  </si>
-  <si>
     <t>https://www.neutrogena.com/our-promise.html</t>
   </si>
   <si>
@@ -231,6 +228,9 @@
   </si>
   <si>
     <t>Utility</t>
+  </si>
+  <si>
+    <t>https://www.neutrogenamd.com/?utm_source=neutrogena.com</t>
   </si>
 </sst>
 </file>
@@ -595,8 +595,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C8DBA22-45EF-46FE-B9FD-0F179C282EE9}">
   <dimension ref="A1:D30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
-      <selection activeCell="B27" sqref="B27:B30"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -673,7 +673,7 @@
         <v>8</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>13</v>
+        <v>65</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -687,7 +687,7 @@
         <v>9</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -695,13 +695,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" t="s">
         <v>15</v>
       </c>
-      <c r="C7" t="s">
-        <v>16</v>
-      </c>
       <c r="D7" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -709,13 +709,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
@@ -723,13 +723,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C9" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
@@ -737,13 +737,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C10" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
@@ -751,13 +751,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C11" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
@@ -765,13 +765,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C12" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
@@ -779,13 +779,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C13" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
@@ -793,13 +793,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C14" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
@@ -807,13 +807,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C15" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
@@ -821,13 +821,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C16" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
@@ -835,13 +835,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C17" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
@@ -849,13 +849,13 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C18" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
@@ -863,13 +863,13 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C19" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
@@ -877,13 +877,13 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
+        <v>41</v>
+      </c>
+      <c r="C20" t="s">
+        <v>48</v>
+      </c>
+      <c r="D20" s="1" t="s">
         <v>42</v>
-      </c>
-      <c r="C20" t="s">
-        <v>49</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
@@ -891,13 +891,13 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C21" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
@@ -905,13 +905,13 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C22" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
@@ -919,13 +919,13 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C23" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
@@ -933,13 +933,13 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C24" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
@@ -947,13 +947,13 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C25" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
@@ -961,13 +961,13 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C26" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
@@ -975,13 +975,13 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C27" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
@@ -989,13 +989,13 @@
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C28" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
@@ -1003,13 +1003,13 @@
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C29" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
@@ -1017,13 +1017,13 @@
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C30" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
   </sheetData>
@@ -1031,7 +1031,7 @@
     <hyperlink ref="D2" r:id="rId1" xr:uid="{227DA680-5516-496A-A4D7-BEFAD563816D}"/>
     <hyperlink ref="D3" r:id="rId2" xr:uid="{A4313E7D-2F8D-4055-A22C-56F6202D48EB}"/>
     <hyperlink ref="D4" r:id="rId3" xr:uid="{13974314-CBCD-451F-9CB7-0C3348415E5F}"/>
-    <hyperlink ref="D5" r:id="rId4" display="https://www.neutrogenamd.com/?utm_source=neutrogena.com&amp;utm_medium=partner&amp;utm_campaign=jnj-brand-sites&amp;_gl=1*1pezwof*_ga*MTg0MDI3ODY5OS4xNjY1MTA2MjYy*_ga_13VEM6N66E*MTY2NTkxMDkzNS4yNC4wLjE2NjU5MTA5OTMuMi4wLjA.*_fplc*ZFBjM1JWRngxQWdGN25PRVI5Q1UwRE01UiUyRlV2TWVLd29WM3cxT2N0QURTd3E1VzJiNllFbUFWQVMlMkZhU0hhQ3djSlpoQnpyeUNndlNJWSUyRndKcEtkOWhTeDdGNUI1aDlzRGF0Z3U0Sm1idGQyUUVGd3U2MTZKaTJUR1NVYVJBJTNEJTNE" xr:uid="{3513421F-86B2-4F91-AB7B-A0A2254103EC}"/>
+    <hyperlink ref="D5" r:id="rId4" xr:uid="{3513421F-86B2-4F91-AB7B-A0A2254103EC}"/>
     <hyperlink ref="D6" r:id="rId5" xr:uid="{2CF3215C-0CB4-4CCF-8757-E266AE1574A2}"/>
     <hyperlink ref="D7" r:id="rId6" xr:uid="{E05D53FC-E5DD-4F46-B800-79C479C0EDF8}"/>
     <hyperlink ref="D8" r:id="rId7" xr:uid="{C7A9666B-4B09-48FA-AD6D-0C2AF59D8DCA}"/>

--- a/src/main/java/resources/Footer.xlsx
+++ b/src/main/java/resources/Footer.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\REZA\Desktop\Automation\eclipse-workspace\Automation_Project-01-Netrogena\src\main\java\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FAC00AD-6EBB-4533-AC63-9AE6E04A0F0A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{754476A6-9F58-4861-A3E5-D1F1A8293A62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{504F117B-5436-459F-B3BF-423EFDFD40F8}"/>
+    <workbookView xWindow="2085" yWindow="570" windowWidth="15375" windowHeight="7875" xr2:uid="{504F117B-5436-459F-B3BF-423EFDFD40F8}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="65">
   <si>
     <t>Sl.No.</t>
   </si>
@@ -176,27 +176,6 @@
     <t>https://www.tiktok.com/@neutrogena_us</t>
   </si>
   <si>
-    <t>https://neostrata.com/</t>
-  </si>
-  <si>
-    <t>facebook</t>
-  </si>
-  <si>
-    <t>youtube</t>
-  </si>
-  <si>
-    <t>instagram</t>
-  </si>
-  <si>
-    <t>tiktok</t>
-  </si>
-  <si>
-    <t>twitter</t>
-  </si>
-  <si>
-    <t>neostrata</t>
-  </si>
-  <si>
     <t>Terms of Use</t>
   </si>
   <si>
@@ -231,6 +210,24 @@
   </si>
   <si>
     <t>https://www.neutrogenamd.com/?utm_source=neutrogena.com</t>
+  </si>
+  <si>
+    <t>https://www.neutrogena.com/offers.html</t>
+  </si>
+  <si>
+    <t>Images-Show#mat-social-fb</t>
+  </si>
+  <si>
+    <t>Images-Show#mat-social-tw</t>
+  </si>
+  <si>
+    <t>Images-Show#mat-social-yt</t>
+  </si>
+  <si>
+    <t>Images-Show#mat-social-ig</t>
+  </si>
+  <si>
+    <t>Images-Show#tiktok-icon-mono</t>
   </si>
 </sst>
 </file>
@@ -593,10 +590,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C8DBA22-45EF-46FE-B9FD-0F179C282EE9}">
-  <dimension ref="A1:D30"/>
+  <dimension ref="A1:D29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="A30" sqref="A30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -673,7 +670,7 @@
         <v>8</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -869,7 +866,7 @@
         <v>33</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>39</v>
+        <v>59</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
@@ -880,7 +877,7 @@
         <v>41</v>
       </c>
       <c r="C20" t="s">
-        <v>48</v>
+        <v>60</v>
       </c>
       <c r="D20" s="1" t="s">
         <v>42</v>
@@ -894,7 +891,7 @@
         <v>41</v>
       </c>
       <c r="C21" t="s">
-        <v>52</v>
+        <v>61</v>
       </c>
       <c r="D21" s="1" t="s">
         <v>43</v>
@@ -908,7 +905,7 @@
         <v>41</v>
       </c>
       <c r="C22" t="s">
-        <v>49</v>
+        <v>62</v>
       </c>
       <c r="D22" s="1" t="s">
         <v>44</v>
@@ -922,7 +919,7 @@
         <v>41</v>
       </c>
       <c r="C23" t="s">
-        <v>50</v>
+        <v>63</v>
       </c>
       <c r="D23" s="1" t="s">
         <v>45</v>
@@ -936,7 +933,7 @@
         <v>41</v>
       </c>
       <c r="C24" t="s">
-        <v>51</v>
+        <v>64</v>
       </c>
       <c r="D24" s="1" t="s">
         <v>46</v>
@@ -947,13 +944,13 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>41</v>
+        <v>57</v>
       </c>
       <c r="C25" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
@@ -961,13 +958,13 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="C26" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
@@ -975,13 +972,13 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="C27" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
@@ -989,13 +986,13 @@
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="C28" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
@@ -1003,27 +1000,13 @@
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="C29" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30">
-        <v>29</v>
-      </c>
-      <c r="B30" t="s">
-        <v>64</v>
-      </c>
-      <c r="C30" t="s">
-        <v>58</v>
-      </c>
-      <c r="D30" s="1" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
     </row>
   </sheetData>
@@ -1045,18 +1028,17 @@
     <hyperlink ref="D16" r:id="rId15" xr:uid="{057C91A4-C1CC-444F-BECF-8C0B89D6BEFF}"/>
     <hyperlink ref="D17" r:id="rId16" xr:uid="{4F606750-D36E-4E13-8835-C52E9F1F94FF}"/>
     <hyperlink ref="D18" r:id="rId17" xr:uid="{C8EEB31C-3EC2-4FDC-91CE-88422A3C07F5}"/>
-    <hyperlink ref="D19" r:id="rId18" xr:uid="{9151B252-987F-4DC3-AFD0-075461F19380}"/>
-    <hyperlink ref="D20" r:id="rId19" xr:uid="{163FDA0E-8804-4329-B578-E05DB744020A}"/>
-    <hyperlink ref="D21" r:id="rId20" xr:uid="{CF9A92D0-A3BE-460C-8A72-E8328B256FA0}"/>
-    <hyperlink ref="D22" r:id="rId21" xr:uid="{ED5AABDD-938A-4F6F-9F46-76F6689B7919}"/>
-    <hyperlink ref="D23" r:id="rId22" xr:uid="{4F81EDB3-6FA7-4995-9E64-6DF91B59A05A}"/>
-    <hyperlink ref="D24" r:id="rId23" xr:uid="{D1406D74-9FD7-4235-854F-3E3E4EC95BC9}"/>
-    <hyperlink ref="D25" r:id="rId24" xr:uid="{B642B3F1-6C78-413C-95B9-7EBE06E6895C}"/>
-    <hyperlink ref="D26" r:id="rId25" xr:uid="{6C1F9ACB-C9D8-4824-A383-363CA45EF221}"/>
-    <hyperlink ref="D27" r:id="rId26" xr:uid="{57B13501-4931-4FBD-936F-2E447CECAC39}"/>
-    <hyperlink ref="D28" r:id="rId27" xr:uid="{1866EF80-769D-4A50-A20A-D69C563D98B4}"/>
-    <hyperlink ref="D29" r:id="rId28" xr:uid="{42760A95-A359-4538-B069-2E5D76653EEC}"/>
-    <hyperlink ref="D30" r:id="rId29" location="internetbasedads" xr:uid="{F252086B-A2B5-4154-8834-86EA8D2E3CD1}"/>
+    <hyperlink ref="D20" r:id="rId18" xr:uid="{163FDA0E-8804-4329-B578-E05DB744020A}"/>
+    <hyperlink ref="D21" r:id="rId19" xr:uid="{CF9A92D0-A3BE-460C-8A72-E8328B256FA0}"/>
+    <hyperlink ref="D22" r:id="rId20" xr:uid="{ED5AABDD-938A-4F6F-9F46-76F6689B7919}"/>
+    <hyperlink ref="D23" r:id="rId21" xr:uid="{4F81EDB3-6FA7-4995-9E64-6DF91B59A05A}"/>
+    <hyperlink ref="D24" r:id="rId22" xr:uid="{D1406D74-9FD7-4235-854F-3E3E4EC95BC9}"/>
+    <hyperlink ref="D25" r:id="rId23" xr:uid="{6C1F9ACB-C9D8-4824-A383-363CA45EF221}"/>
+    <hyperlink ref="D26" r:id="rId24" xr:uid="{57B13501-4931-4FBD-936F-2E447CECAC39}"/>
+    <hyperlink ref="D27" r:id="rId25" xr:uid="{1866EF80-769D-4A50-A20A-D69C563D98B4}"/>
+    <hyperlink ref="D28" r:id="rId26" xr:uid="{42760A95-A359-4538-B069-2E5D76653EEC}"/>
+    <hyperlink ref="D29" r:id="rId27" location="internetbasedads" xr:uid="{F252086B-A2B5-4154-8834-86EA8D2E3CD1}"/>
+    <hyperlink ref="D19" r:id="rId28" xr:uid="{3F36747C-23D1-4FD0-A435-474E4BB0DBCC}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/src/main/java/resources/Footer.xlsx
+++ b/src/main/java/resources/Footer.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\REZA\Desktop\Automation\eclipse-workspace\Automation_Project-01-Netrogena\src\main\java\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{754476A6-9F58-4861-A3E5-D1F1A8293A62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C03F9418-7BF6-45B8-ACAA-279EFA3FA9DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2085" yWindow="570" windowWidth="15375" windowHeight="7875" xr2:uid="{504F117B-5436-459F-B3BF-423EFDFD40F8}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="73">
   <si>
     <t>Sl.No.</t>
   </si>
@@ -228,6 +228,30 @@
   </si>
   <si>
     <t>Images-Show#tiktok-icon-mono</t>
+  </si>
+  <si>
+    <t>badge master</t>
+  </si>
+  <si>
+    <t>Badge</t>
+  </si>
+  <si>
+    <t>badge klarna</t>
+  </si>
+  <si>
+    <t>badge maestro</t>
+  </si>
+  <si>
+    <t>badge visa</t>
+  </si>
+  <si>
+    <t>badge visaelectron</t>
+  </si>
+  <si>
+    <t>badge discover</t>
+  </si>
+  <si>
+    <t>null</t>
   </si>
 </sst>
 </file>
@@ -590,10 +614,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C8DBA22-45EF-46FE-B9FD-0F179C282EE9}">
-  <dimension ref="A1:D29"/>
+  <dimension ref="A1:D35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="A30" sqref="A30"/>
+    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
+      <selection activeCell="D30" sqref="D30:D35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1007,6 +1031,90 @@
       </c>
       <c r="D29" s="1" t="s">
         <v>56</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>29</v>
+      </c>
+      <c r="B30" t="s">
+        <v>66</v>
+      </c>
+      <c r="C30" t="s">
+        <v>67</v>
+      </c>
+      <c r="D30" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>30</v>
+      </c>
+      <c r="B31" t="s">
+        <v>66</v>
+      </c>
+      <c r="C31" t="s">
+        <v>65</v>
+      </c>
+      <c r="D31" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>31</v>
+      </c>
+      <c r="B32" t="s">
+        <v>66</v>
+      </c>
+      <c r="C32" t="s">
+        <v>68</v>
+      </c>
+      <c r="D32" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>32</v>
+      </c>
+      <c r="B33" t="s">
+        <v>66</v>
+      </c>
+      <c r="C33" t="s">
+        <v>69</v>
+      </c>
+      <c r="D33" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>33</v>
+      </c>
+      <c r="B34" t="s">
+        <v>66</v>
+      </c>
+      <c r="C34" t="s">
+        <v>70</v>
+      </c>
+      <c r="D34" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>34</v>
+      </c>
+      <c r="B35" t="s">
+        <v>66</v>
+      </c>
+      <c r="C35" t="s">
+        <v>71</v>
+      </c>
+      <c r="D35" t="s">
+        <v>72</v>
       </c>
     </row>
   </sheetData>
@@ -1041,5 +1149,6 @@
     <hyperlink ref="D19" r:id="rId28" xr:uid="{3F36747C-23D1-4FD0-A435-474E4BB0DBCC}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId29"/>
 </worksheet>
 </file>
--- a/src/main/java/resources/Footer.xlsx
+++ b/src/main/java/resources/Footer.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\REZA\Desktop\Automation\eclipse-workspace\Automation_Project-01-Netrogena\src\main\java\resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Learning\eclipse-workspace\Automation_Project-01-Netrogena\src\main\java\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C03F9418-7BF6-45B8-ACAA-279EFA3FA9DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EDDEAAE-15E5-4481-AC27-50E4A29DF50A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2085" yWindow="570" windowWidth="15375" windowHeight="7875" xr2:uid="{504F117B-5436-459F-B3BF-423EFDFD40F8}"/>
+    <workbookView xWindow="10035" yWindow="1410" windowWidth="21600" windowHeight="11385" xr2:uid="{504F117B-5436-459F-B3BF-423EFDFD40F8}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -230,28 +230,28 @@
     <t>Images-Show#tiktok-icon-mono</t>
   </si>
   <si>
-    <t>badge master</t>
-  </si>
-  <si>
     <t>Badge</t>
   </si>
   <si>
-    <t>badge klarna</t>
-  </si>
-  <si>
-    <t>badge maestro</t>
-  </si>
-  <si>
-    <t>badge visa</t>
-  </si>
-  <si>
-    <t>badge visaelectron</t>
-  </si>
-  <si>
-    <t>badge discover</t>
-  </si>
-  <si>
     <t>null</t>
+  </si>
+  <si>
+    <t>Klarna</t>
+  </si>
+  <si>
+    <t>Mastercard</t>
+  </si>
+  <si>
+    <t>Maestro</t>
+  </si>
+  <si>
+    <t>Visa</t>
+  </si>
+  <si>
+    <t>VisaElectron</t>
+  </si>
+  <si>
+    <t>Discover</t>
   </si>
 </sst>
 </file>
@@ -617,7 +617,7 @@
   <dimension ref="A1:D35"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
-      <selection activeCell="D30" sqref="D30:D35"/>
+      <selection activeCell="C36" sqref="C36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1038,13 +1038,13 @@
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C30" t="s">
         <v>67</v>
       </c>
       <c r="D30" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
@@ -1052,13 +1052,13 @@
         <v>30</v>
       </c>
       <c r="B31" t="s">
+        <v>65</v>
+      </c>
+      <c r="C31" t="s">
+        <v>68</v>
+      </c>
+      <c r="D31" t="s">
         <v>66</v>
-      </c>
-      <c r="C31" t="s">
-        <v>65</v>
-      </c>
-      <c r="D31" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
@@ -1066,13 +1066,13 @@
         <v>31</v>
       </c>
       <c r="B32" t="s">
+        <v>65</v>
+      </c>
+      <c r="C32" t="s">
+        <v>69</v>
+      </c>
+      <c r="D32" t="s">
         <v>66</v>
-      </c>
-      <c r="C32" t="s">
-        <v>68</v>
-      </c>
-      <c r="D32" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
@@ -1080,13 +1080,13 @@
         <v>32</v>
       </c>
       <c r="B33" t="s">
+        <v>65</v>
+      </c>
+      <c r="C33" t="s">
+        <v>70</v>
+      </c>
+      <c r="D33" t="s">
         <v>66</v>
-      </c>
-      <c r="C33" t="s">
-        <v>69</v>
-      </c>
-      <c r="D33" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
@@ -1094,13 +1094,13 @@
         <v>33</v>
       </c>
       <c r="B34" t="s">
+        <v>65</v>
+      </c>
+      <c r="C34" t="s">
+        <v>71</v>
+      </c>
+      <c r="D34" t="s">
         <v>66</v>
-      </c>
-      <c r="C34" t="s">
-        <v>70</v>
-      </c>
-      <c r="D34" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
@@ -1108,13 +1108,13 @@
         <v>34</v>
       </c>
       <c r="B35" t="s">
+        <v>65</v>
+      </c>
+      <c r="C35" t="s">
+        <v>72</v>
+      </c>
+      <c r="D35" t="s">
         <v>66</v>
-      </c>
-      <c r="C35" t="s">
-        <v>71</v>
-      </c>
-      <c r="D35" t="s">
-        <v>72</v>
       </c>
     </row>
   </sheetData>
